--- a/data/trans_orig/P14A20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A20-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{206FC461-24B6-4AA6-AC24-313ADCDB119C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B6C4FD3-C861-4EBB-9734-98FA119A01C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E89A8F5-C7A7-413D-9EFE-0A43475731F1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9EEFD97-0498-49E4-B05B-9876CFC61A5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="184">
   <si>
     <t>Población que recibe medicación o terapia por hemorroides en 2012 (Tasa respuesta: 1,2%)</t>
   </si>
@@ -108,7 +108,7 @@
     <t>79,35%</t>
   </si>
   <si>
-    <t>19,47%</t>
+    <t>19,36%</t>
   </si>
   <si>
     <t>34,29%</t>
@@ -120,7 +120,7 @@
     <t>20,65%</t>
   </si>
   <si>
-    <t>80,53%</t>
+    <t>80,64%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -135,7 +135,7 @@
     <t>67,55%</t>
   </si>
   <si>
-    <t>17,06%</t>
+    <t>17,78%</t>
   </si>
   <si>
     <t>39,36%</t>
@@ -147,7 +147,7 @@
     <t>32,45%</t>
   </si>
   <si>
-    <t>82,94%</t>
+    <t>82,22%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -156,37 +156,37 @@
     <t>29,15%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
   </si>
   <si>
     <t>37,67%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
   </si>
   <si>
     <t>70,85%</t>
   </si>
   <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>62,33%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -204,16 +204,16 @@
     <t>13,88%</t>
   </si>
   <si>
-    <t>38,08%</t>
+    <t>37,55%</t>
   </si>
   <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
   </si>
   <si>
     <t>59,39%</t>
@@ -228,16 +228,16 @@
     <t>86,12%</t>
   </si>
   <si>
-    <t>61,92%</t>
+    <t>62,45%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -246,109 +246,109 @@
     <t>38,26%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
   </si>
   <si>
     <t>51,37%</t>
   </si>
   <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>47,86%</t>
   </si>
   <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
   <si>
     <t>48,63%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
   </si>
   <si>
     <t>52,14%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
   </si>
   <si>
     <t>42,2%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
   </si>
   <si>
     <t>51,72%</t>
   </si>
   <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
   </si>
   <si>
     <t>60,66%</t>
   </si>
   <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
   </si>
   <si>
     <t>57,8%</t>
   </si>
   <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -366,115 +366,121 @@
     <t>17,18%</t>
   </si>
   <si>
-    <t>59,57%</t>
+    <t>61,66%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>52,93%</t>
+    <t>54,77%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>40,43%</t>
+    <t>38,34%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>47,07%</t>
+    <t>45,23%</t>
   </si>
   <si>
     <t>62,87%</t>
   </si>
   <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>58,17%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>41,83%</t>
   </si>
   <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
   </si>
   <si>
     <t>35,31%</t>
   </si>
   <si>
-    <t>80,79%</t>
+    <t>79,03%</t>
   </si>
   <si>
     <t>40,67%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
   </si>
   <si>
     <t>38,96%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
   </si>
   <si>
     <t>64,69%</t>
   </si>
   <si>
-    <t>19,21%</t>
+    <t>20,97%</t>
   </si>
   <si>
     <t>59,33%</t>
   </si>
   <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
   <si>
     <t>61,04%</t>
   </si>
   <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
   </si>
   <si>
     <t>54,62%</t>
@@ -534,55 +540,55 @@
     <t>46,83%</t>
   </si>
   <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
   </si>
   <si>
     <t>44,09%</t>
   </si>
   <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
   </si>
   <si>
     <t>53,17%</t>
   </si>
   <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>54,75%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0400340E-1F20-4DB9-AF8E-091753A57700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC266F76-B930-455F-99BD-CBECA93C4266}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2207,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60771C03-31F5-4C12-92AD-FDACDF75566D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D77C5-37C5-4E8E-BB20-34C68710E52A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,7 +2817,7 @@
         <v>120</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2823,10 +2829,10 @@
         <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2847,13 @@
         <v>3046</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2856,13 +2862,13 @@
         <v>3100</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2874,10 +2880,10 @@
         <v>33</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2951,13 @@
         <v>3132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2960,13 +2966,13 @@
         <v>7687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2975,13 +2981,13 @@
         <v>10819</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,10 +3002,10 @@
         <v>5738</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -3011,13 +3017,13 @@
         <v>11216</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -3026,13 +3032,13 @@
         <v>16954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3106,13 @@
         <v>5463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3115,13 +3121,13 @@
         <v>7266</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -3130,13 +3136,13 @@
         <v>12728</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3157,13 @@
         <v>4538</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3166,13 +3172,13 @@
         <v>9413</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -3181,13 +3187,13 @@
         <v>13952</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3261,13 @@
         <v>15705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -3270,13 +3276,13 @@
         <v>20260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -3285,13 +3291,13 @@
         <v>35965</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3312,13 @@
         <v>17828</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -3321,13 +3327,13 @@
         <v>25690</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
@@ -3336,13 +3342,13 @@
         <v>43518</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A20-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B6C4FD3-C861-4EBB-9734-98FA119A01C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49366BEE-7822-4CCA-B5E5-38CB32AFD31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9EEFD97-0498-49E4-B05B-9876CFC61A5F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E3CE1FA-BBEC-419C-BB78-DD6C32E329B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="182">
   <si>
     <t>Población que recibe medicación o terapia por hemorroides en 2012 (Tasa respuesta: 1,2%)</t>
   </si>
@@ -108,7 +108,7 @@
     <t>79,35%</t>
   </si>
   <si>
-    <t>19,36%</t>
+    <t>18,67%</t>
   </si>
   <si>
     <t>34,29%</t>
@@ -120,7 +120,7 @@
     <t>20,65%</t>
   </si>
   <si>
-    <t>80,64%</t>
+    <t>81,33%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -129,25 +129,19 @@
     <t>60,64%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
     <t>67,55%</t>
   </si>
   <si>
-    <t>17,78%</t>
+    <t>17,19%</t>
   </si>
   <si>
     <t>39,36%</t>
   </si>
   <si>
-    <t>79,79%</t>
-  </si>
-  <si>
     <t>32,45%</t>
   </si>
   <si>
-    <t>82,22%</t>
+    <t>82,81%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -156,37 +150,37 @@
     <t>29,15%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
   </si>
   <si>
     <t>37,67%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
   </si>
   <si>
     <t>70,85%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>62,33%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -195,49 +189,49 @@
     <t>40,61%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>37,55%</t>
+    <t>39,99%</t>
   </si>
   <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
   </si>
   <si>
     <t>59,39%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>62,45%</t>
+    <t>60,01%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -246,115 +240,115 @@
     <t>38,26%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>51,37%</t>
   </si>
   <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>47,86%</t>
   </si>
   <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
   </si>
   <si>
     <t>48,63%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
   </si>
   <si>
     <t>52,14%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
   </si>
   <si>
     <t>42,2%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
   </si>
   <si>
     <t>51,72%</t>
   </si>
   <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
   </si>
   <si>
     <t>60,66%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
   </si>
   <si>
     <t>57,8%</t>
   </si>
   <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por hemorroides en 2015 (Tasa respuesta: 1,07%)</t>
+    <t>Población que recibe medicación o terapia por hemorroides en 2016 (Tasa respuesta: 1,07%)</t>
   </si>
   <si>
     <t>50,85%</t>
@@ -366,229 +360,229 @@
     <t>17,18%</t>
   </si>
   <si>
-    <t>61,66%</t>
+    <t>70,99%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>54,77%</t>
+    <t>49,1%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>38,34%</t>
+    <t>29,01%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>45,23%</t>
+    <t>50,9%</t>
   </si>
   <si>
     <t>62,87%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
   </si>
   <si>
     <t>58,17%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
   </si>
   <si>
     <t>41,83%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
   </si>
   <si>
     <t>35,31%</t>
   </si>
   <si>
-    <t>79,03%</t>
+    <t>77,07%</t>
   </si>
   <si>
     <t>40,67%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
   </si>
   <si>
     <t>38,96%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
   </si>
   <si>
     <t>64,69%</t>
   </si>
   <si>
-    <t>20,97%</t>
+    <t>22,93%</t>
   </si>
   <si>
     <t>59,33%</t>
   </si>
   <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>61,04%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
   </si>
   <si>
     <t>54,62%</t>
   </si>
   <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
   </si>
   <si>
     <t>43,56%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
   </si>
   <si>
     <t>47,71%</t>
   </si>
   <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
   </si>
   <si>
     <t>45,38%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
   </si>
   <si>
     <t>56,44%</t>
   </si>
   <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
   </si>
   <si>
     <t>52,29%</t>
   </si>
   <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
   </si>
   <si>
     <t>46,83%</t>
   </si>
   <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>44,09%</t>
   </si>
   <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
   </si>
   <si>
     <t>53,17%</t>
   </si>
   <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
   </si>
   <si>
     <t>54,75%</t>
   </si>
   <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC266F76-B930-455F-99BD-CBECA93C4266}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7291B591-6931-41D9-945B-2A0280195C3E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1446,7 +1440,7 @@
         <v>29</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -1458,10 +1452,10 @@
         <v>4014</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -1494,13 +1488,13 @@
         <v>1928</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1509,13 +1503,13 @@
         <v>1928</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1571,7 +1565,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1598,13 +1592,13 @@
         <v>3171</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1613,13 +1607,13 @@
         <v>5343</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,13 +1643,13 @@
         <v>7706</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -1664,13 +1658,13 @@
         <v>8840</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1726,7 +1720,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1738,13 +1732,13 @@
         <v>4188</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1753,13 +1747,13 @@
         <v>1945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -1768,13 +1762,13 @@
         <v>6133</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,13 +1783,13 @@
         <v>6126</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -1804,10 +1798,10 @@
         <v>12072</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -1819,13 +1813,13 @@
         <v>18197</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,7 +1875,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1893,13 +1887,13 @@
         <v>3236</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -1908,13 +1902,13 @@
         <v>11872</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -1923,13 +1917,13 @@
         <v>15108</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,13 +1938,13 @@
         <v>5222</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -1959,13 +1953,13 @@
         <v>11240</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -1974,13 +1968,13 @@
         <v>16462</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2048,13 +2042,13 @@
         <v>12615</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -2063,13 +2057,13 @@
         <v>21946</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -2078,13 +2072,13 @@
         <v>34562</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,13 +2093,13 @@
         <v>13513</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -2114,13 +2108,13 @@
         <v>33835</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M23" s="7">
         <v>45</v>
@@ -2129,13 +2123,13 @@
         <v>47347</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,7 +2185,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2213,7 +2207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D77C5-37C5-4E8E-BB20-34C68710E52A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E8D1E0-55AF-4129-80E4-78D706D7CEC4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2230,7 +2224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2516,7 +2510,7 @@
         <v>1019</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
@@ -2567,7 +2561,7 @@
         <v>985</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
@@ -2641,13 +2635,13 @@
         <v>935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2671,13 +2665,13 @@
         <v>935</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,10 +2686,10 @@
         <v>4505</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -2722,10 +2716,10 @@
         <v>5481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -2784,7 +2778,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2796,13 +2790,13 @@
         <v>5157</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2811,13 +2805,13 @@
         <v>4311</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2829,10 +2823,10 @@
         <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2841,13 @@
         <v>3046</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2862,13 +2856,13 @@
         <v>3100</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2877,13 +2871,13 @@
         <v>6146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,7 +2933,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2951,13 +2945,13 @@
         <v>3132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2966,13 +2960,13 @@
         <v>7687</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2981,13 +2975,13 @@
         <v>10819</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,10 +2996,10 @@
         <v>5738</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -3017,13 +3011,13 @@
         <v>11216</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -3032,13 +3026,13 @@
         <v>16954</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3088,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3106,13 +3100,13 @@
         <v>5463</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3121,13 +3115,13 @@
         <v>7266</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -3136,13 +3130,13 @@
         <v>12728</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3151,13 @@
         <v>4538</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3172,13 +3166,13 @@
         <v>9413</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -3187,13 +3181,13 @@
         <v>13952</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3255,13 @@
         <v>15705</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -3276,13 +3270,13 @@
         <v>20260</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -3291,13 +3285,13 @@
         <v>35965</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,13 +3306,13 @@
         <v>17828</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -3327,13 +3321,13 @@
         <v>25690</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
@@ -3342,13 +3336,13 @@
         <v>43518</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,7 +3398,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
